--- a/Data3.xlsx
+++ b/Data3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC6\Desktop\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC6\Desktop\github\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4148318F-520C-49CB-A22C-919679FB3EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8481A4-6964-473E-9D61-AA8ABF00FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{93913589-A05A-459E-8889-858889B7BD49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93913589-A05A-459E-8889-858889B7BD49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="56">
   <si>
     <t>SR.NO</t>
   </si>
@@ -193,13 +193,25 @@
   </si>
   <si>
     <t>com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +242,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +288,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,15 +356,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -340,7 +384,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -658,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C44C28F-D4D4-4967-A55C-AE3C24D91A71}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,19 +754,19 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -730,17 +785,17 @@
       </c>
       <c r="E2" s="1">
         <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(30000,50000)</f>
-        <v>31054</v>
-      </c>
-      <c r="G2" s="7">
+        <v>31483</v>
+      </c>
+      <c r="G2" s="6">
         <f ca="1">RANDBETWEEN(7000000000,9999999999)</f>
-        <v>7712261526</v>
-      </c>
-      <c r="H2" s="14" t="s">
+        <v>9924520981</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -768,17 +823,17 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E10" ca="1" si="0">RANDBETWEEN(20,30)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F10" ca="1" si="1">RANDBETWEEN(30000,50000)</f>
-        <v>39182</v>
-      </c>
-      <c r="G3" s="7">
+        <v>35999</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G10" ca="1" si="2">RANDBETWEEN(7000000000,9999999999)</f>
-        <v>9095560060</v>
-      </c>
-      <c r="H3" s="14" t="s">
+        <v>7115665381</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -806,17 +861,17 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33606</v>
-      </c>
-      <c r="G4" s="7">
+        <v>30846</v>
+      </c>
+      <c r="G4" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>9825491577</v>
-      </c>
-      <c r="H4" s="14" t="s">
+        <v>8282813274</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -844,17 +899,17 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49352</v>
-      </c>
-      <c r="G5" s="7">
+        <v>36449</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>7071717197</v>
-      </c>
-      <c r="H5" s="14" t="s">
+        <v>9610453906</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -882,17 +937,17 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31208</v>
-      </c>
-      <c r="G6" s="7">
+        <v>47643</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>7575587914</v>
-      </c>
-      <c r="H6" s="14" t="s">
+        <v>9997792612</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -920,17 +975,17 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35208</v>
-      </c>
-      <c r="G7" s="7">
+        <v>42693</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>8826240844</v>
-      </c>
-      <c r="H7" s="14" t="s">
+        <v>9361144156</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -958,17 +1013,17 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41188</v>
-      </c>
-      <c r="G8" s="7">
+        <v>33360</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>8780519417</v>
-      </c>
-      <c r="H8" s="14" t="s">
+        <v>8650373129</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1000,13 +1055,13 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32175</v>
-      </c>
-      <c r="G9" s="7">
+        <v>32288</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>7432110792</v>
-      </c>
-      <c r="H9" s="14" t="s">
+        <v>8527927785</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1020,31 +1075,31 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F10" s="11">
+        <v>27</v>
+      </c>
+      <c r="F10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>42034</v>
-      </c>
-      <c r="G10" s="12">
+        <v>40682</v>
+      </c>
+      <c r="G10" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9112961816</v>
-      </c>
-      <c r="H10" s="14" t="s">
+        <v>7155806149</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1058,42 +1113,42 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5">
+      <c r="B11" s="20"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
         <f ca="1">SUM(E2:E10)</f>
-        <v>232</v>
-      </c>
-      <c r="F11" s="13">
+        <v>230</v>
+      </c>
+      <c r="F11" s="12">
         <f ca="1">SUM(F2:F10)</f>
-        <v>335007</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+        <v>331443</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="17" spans="4:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="8" t="s">
         <v>27</v>
       </c>
       <c r="P18" t="s">
@@ -1114,7 +1169,7 @@
       <c r="K19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="P19" t="s">
@@ -1139,7 +1194,7 @@
         <f>_xlfn.CONCAT(I20," ",J20)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P20" t="s">
@@ -1153,10 +1208,7 @@
       </c>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="str">
-        <f>_xlfn.CONCAT(B21," ",C21)</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="H21" s="1" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
@@ -1165,7 +1217,7 @@
         <f t="shared" ref="K21:K28" si="4">_xlfn.CONCAT(I21," ",J21)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P21" t="s">
@@ -1191,7 +1243,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="P22" t="s">
@@ -1217,7 +1269,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="P23" t="s">
@@ -1243,7 +1295,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="P24" t="s">
@@ -1269,7 +1321,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P25" t="s">
@@ -1295,7 +1347,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P26" t="s">
@@ -1313,7 +1365,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H27" s="11" t="str">
+      <c r="H27" s="10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1327,13 +1379,13 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K28" s="11" t="str">
+      <c r="K28" s="10" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D29" s="11" t="str">
+      <c r="D29" s="10" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1372,7 +1424,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,142 +1436,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1530,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD73804-D7B8-429F-A548-619467B5CE35}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,117 +1595,124 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="21" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>